--- a/data/trans_orig/Q46-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>80,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>82,31</t>
+          <t>82,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>67,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>67,71</t>
+          <t>67,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>73,96</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>74,89</t>
+          <t>75,12</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,59; 81,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,68; 84,26</t>
+          <t>80,28; 83,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,73; 69,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>66,43; 69,25</t>
+          <t>66,28; 69,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,66; 75,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>73,6; 76,13</t>
+          <t>73,8; 76,39</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>81,25</t>
+          <t>81,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>74,46</t>
+          <t>74,61</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,57; 82,8</t>
+          <t>79,31; 82,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,11; 69,12</t>
+          <t>67,11; 69,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>73,41; 75,5</t>
+          <t>73,52; 75,66</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82,1</t>
+          <t>82,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>69,21</t>
+          <t>69,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>75,2</t>
+          <t>75,31</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,57; 83,79</t>
+          <t>80,49; 83,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,9; 70,39</t>
+          <t>67,87; 70,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>74,1; 76,35</t>
+          <t>74,2; 76,46</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>80,72</t>
+          <t>81,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80,82</t>
+          <t>80,93</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,86</t>
+          <t>68,2</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>66,6</t>
+          <t>65,72</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>74,33</t>
+          <t>74,62</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>72,84</t>
+          <t>72,03</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,76; 81,8</t>
+          <t>79,69; 82,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,02; 82,62</t>
+          <t>79,03; 82,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,87; 68,85</t>
+          <t>67,0; 69,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,37; 67,89</t>
+          <t>63,29; 67,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,54; 75,19</t>
+          <t>73,54; 75,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,57; 74,27</t>
+          <t>68,59; 73,94</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>81,27</t>
+          <t>81,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>170,03</t>
+          <t>251,37</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>131,7</t>
+          <t>181,8</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,83; 82,85</t>
+          <t>79,88; 82,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>73,66; 416,72</t>
+          <t>73,77; 579,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>77,24; 324,31</t>
+          <t>77,36; 473,03</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>80,51</t>
+          <t>80,44</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>73,82</t>
+          <t>73,93</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,19; 82,25</t>
+          <t>79,12; 82,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>65,81; 68,2</t>
+          <t>65,83; 68,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>72,79; 74,98</t>
+          <t>72,9; 75,09</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>80,13</t>
+          <t>80,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>69,28</t>
+          <t>70,89</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>74,06</t>
+          <t>74,78</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>78,74; 81,41</t>
+          <t>78,57; 81,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>66,87; 74,34</t>
+          <t>66,88; 76,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>73,01; 76,15</t>
+          <t>73,23; 77,79</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>79,88</t>
+          <t>84,31</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>68,28</t>
+          <t>68,42</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>74,07</t>
+          <t>77,42</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>78,24; 84,45</t>
+          <t>78,31; 93,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>67,38; 69,18</t>
+          <t>67,58; 69,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>73,01; 76,8</t>
+          <t>73,2; 85,88</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>80,76</t>
+          <t>81,88</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>75,29</t>
+          <t>81,67</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>77,87</t>
+          <t>81,77</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>80,17; 81,84</t>
+          <t>80,28; 86,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>68,43; 104,59</t>
+          <t>68,36; 134,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>74,25; 90,34</t>
+          <t>74,68; 105,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q46-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,48; 79,61</t>
+          <t>76,51; 79,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,59; 81,76</t>
+          <t>78,65; 81,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,64; 81,68</t>
+          <t>77,74; 81,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,28; 83,91</t>
+          <t>80,38; 83,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,61; 65,21</t>
+          <t>62,69; 65,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>65,73; 69,06</t>
+          <t>65,78; 68,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,04; 68,05</t>
+          <t>64,84; 67,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>66,28; 69,4</t>
+          <t>66,31; 69,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>69,77; 72,15</t>
+          <t>69,87; 72,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>72,66; 75,21</t>
+          <t>72,67; 75,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71,65; 74,64</t>
+          <t>71,67; 74,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>73,8; 76,39</t>
+          <t>74,01; 76,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,45; 77,64</t>
+          <t>75,5; 77,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,6; 79,17</t>
+          <t>76,61; 79,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,56; 78,95</t>
+          <t>76,67; 79,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,31; 82,72</t>
+          <t>79,26; 82,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,97; 67,08</t>
+          <t>64,91; 66,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,96; 69,28</t>
+          <t>67,02; 69,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,96; 69,48</t>
+          <t>67,06; 69,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,11; 69,13</t>
+          <t>66,98; 68,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,36; 72,05</t>
+          <t>70,35; 72,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>72,09; 73,92</t>
+          <t>72,03; 73,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,06; 73,91</t>
+          <t>72,07; 73,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>73,52; 75,66</t>
+          <t>73,59; 75,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,31; 77,5</t>
+          <t>75,3; 77,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,43; 82,06</t>
+          <t>79,38; 82,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,24; 81,86</t>
+          <t>79,16; 81,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,49; 83,76</t>
+          <t>80,37; 83,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,24; 66,71</t>
+          <t>64,23; 66,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,83; 69,67</t>
+          <t>66,67; 69,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,58; 69,57</t>
+          <t>66,42; 69,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,87; 70,36</t>
+          <t>67,86; 70,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69,85; 71,73</t>
+          <t>69,95; 71,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73,06; 75,4</t>
+          <t>73,05; 75,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,1; 75,31</t>
+          <t>73,11; 75,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>74,2; 76,46</t>
+          <t>74,09; 76,43</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,02; 80,3</t>
+          <t>78,18; 80,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,69; 82,41</t>
+          <t>79,65; 82,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,44; 81,93</t>
+          <t>78,65; 81,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,03; 82,78</t>
+          <t>79,24; 82,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,61; 66,9</t>
+          <t>64,56; 66,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,0; 69,54</t>
+          <t>66,95; 69,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,28; 69,05</t>
+          <t>66,31; 68,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,29; 67,3</t>
+          <t>63,32; 67,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,48; 73,34</t>
+          <t>71,43; 73,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,54; 75,61</t>
+          <t>73,51; 75,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,72; 74,98</t>
+          <t>72,61; 75,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>68,59; 73,94</t>
+          <t>68,27; 73,91</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,12; 79,57</t>
+          <t>76,12; 79,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,02; 82,68</t>
+          <t>78,87; 82,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,86; 80,56</t>
+          <t>76,79; 80,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,88; 82,89</t>
+          <t>79,81; 82,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>65,62; 69,9</t>
+          <t>65,57; 69,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,32; 67,79</t>
+          <t>64,39; 67,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>68,9; 71,83</t>
+          <t>68,91; 71,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>73,77; 579,0</t>
+          <t>73,63; 575,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71,23; 74,02</t>
+          <t>71,09; 74,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>71,75; 74,76</t>
+          <t>71,84; 74,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,02; 75,52</t>
+          <t>73,09; 75,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>77,36; 473,03</t>
+          <t>77,21; 439,37</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,0; 79,65</t>
+          <t>77,03; 79,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>81,45; 85,18</t>
+          <t>81,53; 85,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,48; 81,7</t>
+          <t>78,44; 81,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,12; 82,17</t>
+          <t>79,04; 82,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,78; 66,32</t>
+          <t>63,81; 66,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,91; 71,06</t>
+          <t>68,09; 71,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>65,42; 68,65</t>
+          <t>65,62; 68,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>65,83; 68,23</t>
+          <t>65,76; 68,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>70,47; 72,66</t>
+          <t>70,44; 72,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,85; 77,57</t>
+          <t>74,95; 77,74</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>72,29; 74,84</t>
+          <t>72,33; 74,85</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>72,9; 75,09</t>
+          <t>72,94; 75,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,57; 79,42</t>
+          <t>77,65; 79,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,0; 80,93</t>
+          <t>78,88; 80,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80,34; 82,36</t>
+          <t>80,19; 82,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>78,57; 81,35</t>
+          <t>78,75; 81,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,03; 67,05</t>
+          <t>65,09; 67,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,73; 69,73</t>
+          <t>67,83; 69,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>65,15; 67,4</t>
+          <t>65,1; 67,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>66,88; 76,84</t>
+          <t>66,84; 77,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,41; 72,96</t>
+          <t>71,43; 72,95</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>73,5; 75,0</t>
+          <t>73,45; 75,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>72,62; 74,4</t>
+          <t>72,64; 74,44</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>73,23; 77,79</t>
+          <t>73,23; 77,62</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,83; 79,52</t>
+          <t>77,8; 79,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>77,85; 79,59</t>
+          <t>77,92; 79,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>79,45; 81,48</t>
+          <t>79,51; 81,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>78,31; 93,0</t>
+          <t>78,35; 92,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>64,08; 65,81</t>
+          <t>64,15; 65,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,46; 68,34</t>
+          <t>66,41; 68,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>67,4; 69,33</t>
+          <t>67,57; 69,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>67,58; 69,28</t>
+          <t>67,63; 69,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>70,89; 72,3</t>
+          <t>70,92; 72,27</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>72,25; 73,65</t>
+          <t>72,12; 73,6</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>73,52; 74,98</t>
+          <t>73,48; 74,96</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>73,2; 85,88</t>
+          <t>73,16; 86,5</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>77,55; 78,4</t>
+          <t>77,56; 78,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>79,43; 80,33</t>
+          <t>79,45; 80,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>79,44; 80,4</t>
+          <t>79,51; 80,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>80,28; 86,32</t>
+          <t>80,32; 86,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>65,13; 65,98</t>
+          <t>65,1; 65,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>67,59; 68,47</t>
+          <t>67,55; 68,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>67,21; 68,11</t>
+          <t>67,23; 68,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>68,36; 134,05</t>
+          <t>68,34; 129,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>71,35; 72,0</t>
+          <t>71,33; 71,99</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>73,5; 74,19</t>
+          <t>73,52; 74,22</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>73,31; 74,06</t>
+          <t>73,33; 74,1</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>74,68; 105,05</t>
+          <t>74,57; 105,93</t>
         </is>
       </c>
     </row>
